--- a/biology/Botanique/Chapsa_kalbii/Chapsa_kalbii.xlsx
+++ b/biology/Botanique/Chapsa_kalbii/Chapsa_kalbii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapsa kalbii aussi appelé Pseudochapsa kalbii est une espèce de lichens corticoles, décrite par Andreas Frisch[2]. L'épithète kalbii fait référence à Klaus Kalb, lichénologue allemand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapsa kalbii aussi appelé Pseudochapsa kalbii est une espèce de lichens corticoles, décrite par Andreas Frisch. L'épithète kalbii fait référence à Klaus Kalb, lichénologue allemand.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapsa kalbii présente des ascospores muriformes. Sa particularité est que ses thalles ne présentent pas de cortex.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapsa kalbii se trouve principalement dans les forêts tropicales du Cameroun, à 650-700 mètres d'altitude, sur le tronc des arbres ou sur les lianes. 
 </t>
